--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DFF003-8110-43CA-9729-15BC58D76E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74362D6-1D54-42DF-A209-6459D3CD7E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,22 @@
   </si>
   <si>
     <t>100나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -864,7 +880,7 @@
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:C16" si="1">B13*2</f>
+        <f t="shared" ref="C13:C20" si="1">B13*2</f>
         <v>2.0000000000000001E+84</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -961,6 +977,114 @@
         <v>5</v>
       </c>
       <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.0000000000000001E+91</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E+91</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.0000000000000002E+91</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1E+92</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E+92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1E+93</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E+93</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
+        <v>95</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74362D6-1D54-42DF-A209-6459D3CD7E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2796F7A-2E60-4C88-8423-97A59BFC6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>10라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1088,6 +1100,87 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1E+94</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21:C23" si="2">B21*2</f>
+        <v>2E+94</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1E+95</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="2"/>
+        <v>2E+95</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>105</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1E+96</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000001E+96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>110</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2796F7A-2E60-4C88-8423-97A59BFC6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D041D-C5B3-444F-9E50-6EA08D8B0740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>1가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,11 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1181,6 +1185,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24" si="3">B24*2</f>
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1">
+        <v>115</v>
+      </c>
+      <c r="G24" s="1">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9D041D-C5B3-444F-9E50-6EA08D8B0740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E803F5-62BA-4652-B51E-EEA98081F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>10가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1120,7 @@
         <v>1E+94</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21:C23" si="2">B21*2</f>
+        <f t="shared" ref="C21:C25" si="2">B21*2</f>
         <v>2E+94</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1193,7 +1201,7 @@
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24" si="3">B24*2</f>
+        <f t="shared" ref="C24:C26" si="3">B24*2</f>
         <v>2.0000000000000001E+97</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1209,6 +1217,60 @@
         <v>18</v>
       </c>
       <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1E+98</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="2"/>
+        <v>2E+98</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>120</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999999E+99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1">
+        <v>125</v>
+      </c>
+      <c r="G26" s="1">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E803F5-62BA-4652-B51E-EEA98081F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC51D218-E4B6-41E9-87B9-B2F33B2DF4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>1000가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10언</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1209,7 @@
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:C26" si="3">B24*2</f>
+        <f t="shared" ref="C24:C27" si="3">B24*2</f>
         <v>2.0000000000000001E+97</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1271,6 +1279,60 @@
         <v>22</v>
       </c>
       <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1E+100</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="3"/>
+        <v>2E+100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1">
+        <v>130</v>
+      </c>
+      <c r="G27" s="1">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9.9999999999999998E+100</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28" si="4">B28*2</f>
+        <v>2E+101</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>135</v>
+      </c>
+      <c r="G28" s="1">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC51D218-E4B6-41E9-87B9-B2F33B2DF4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895A942-9C7C-4320-8A94-2B0A42F78218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,26 @@
   </si>
   <si>
     <t>10언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,11 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1337,7 @@
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28" si="4">B28*2</f>
+        <f t="shared" ref="C28:C29" si="4">B28*2</f>
         <v>2E+101</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1333,6 +1353,141 @@
         <v>26</v>
       </c>
       <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>9.9999999999999998E+101</v>
+      </c>
+      <c r="C29" s="3">
+        <f>B29*2</f>
+        <v>2E+102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1">
+        <v>140</v>
+      </c>
+      <c r="G29" s="1">
+        <v>28</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1E+103</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30:C33" si="5">B30*2</f>
+        <v>2E+103</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1">
+        <v>145</v>
+      </c>
+      <c r="G30" s="1">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1E+104</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="5"/>
+        <v>2E+104</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1">
+        <v>150</v>
+      </c>
+      <c r="G31" s="1">
+        <v>32</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>9.9999999999999994E+104</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999999E+105</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1">
+        <v>155</v>
+      </c>
+      <c r="G32" s="1">
+        <v>34</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000002E+106</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1">
+        <v>160</v>
+      </c>
+      <c r="G33" s="1">
+        <v>36</v>
+      </c>
+      <c r="H33" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8895A942-9C7C-4320-8A94-2B0A42F78218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6640124D-5A0B-4BEB-A908-9CA795C47B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,26 @@
   </si>
   <si>
     <t>100승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,11 +603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1337,7 +1357,7 @@
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:C29" si="4">B28*2</f>
+        <f t="shared" ref="C28" si="4">B28*2</f>
         <v>2E+101</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1391,7 +1411,7 @@
         <v>1E+103</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:C33" si="5">B30*2</f>
+        <f t="shared" ref="C30:C44" si="5">B30*2</f>
         <v>2E+103</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1488,6 +1508,141 @@
         <v>36</v>
       </c>
       <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9.9999999999999997E+106</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999999E+107</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
+        <v>165</v>
+      </c>
+      <c r="G34" s="1">
+        <v>38</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1E+108</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E+108</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1">
+        <v>170</v>
+      </c>
+      <c r="G35" s="1">
+        <v>40</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="5"/>
+        <v>2E+109</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="1">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1">
+        <v>175</v>
+      </c>
+      <c r="G36" s="1">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1E+110</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="5"/>
+        <v>2E+110</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1">
+        <v>180</v>
+      </c>
+      <c r="G37" s="1">
+        <v>44</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>9.9999999999999996E+110</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999999E+111</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="1">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1">
+        <v>185</v>
+      </c>
+      <c r="G38" s="1">
+        <v>46</v>
+      </c>
+      <c r="H38" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6640124D-5A0B-4BEB-A908-9CA795C47B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1561FC1C-6F1D-408C-BF49-3BB9B0673F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,22 @@
   </si>
   <si>
     <t>1000마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000살</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1265,7 @@
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:C27" si="3">B24*2</f>
+        <f t="shared" ref="C24:C38" si="3">B24*2</f>
         <v>2.0000000000000001E+97</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1327,6 +1343,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
+        <f>B26*10</f>
         <v>1E+100</v>
       </c>
       <c r="C27" s="3">
@@ -1340,9 +1357,11 @@
         <v>20</v>
       </c>
       <c r="F27" s="1">
+        <f>F26+5</f>
         <v>130</v>
       </c>
       <c r="G27" s="1">
+        <f>G26+2</f>
         <v>24</v>
       </c>
       <c r="H27" s="1">
@@ -1354,10 +1373,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
+        <f t="shared" ref="B28:B38" si="4">B27*10</f>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28" si="4">B28*2</f>
+        <f t="shared" si="3"/>
         <v>2E+101</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1367,9 +1387,11 @@
         <v>20</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" ref="F28:F38" si="5">F27+5</f>
         <v>135</v>
       </c>
       <c r="G28" s="1">
+        <f t="shared" ref="G28:G38" si="6">G27+2</f>
         <v>26</v>
       </c>
       <c r="H28" s="1">
@@ -1381,10 +1403,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
+        <f t="shared" si="4"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="C29" s="3">
-        <f>B29*2</f>
+        <f t="shared" si="3"/>
         <v>2E+102</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1394,9 +1417,11 @@
         <v>20</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="G29" s="1">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="H29" s="1">
@@ -1408,10 +1433,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
+        <f t="shared" si="4"/>
         <v>1E+103</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:C44" si="5">B30*2</f>
+        <f t="shared" si="3"/>
         <v>2E+103</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1421,9 +1447,11 @@
         <v>20</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="G30" s="1">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H30" s="1">
@@ -1435,10 +1463,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
+        <f t="shared" si="4"/>
         <v>1E+104</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2E+104</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1448,9 +1477,11 @@
         <v>20</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="G31" s="1">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="H31" s="1">
@@ -1462,10 +1493,11 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
+        <f t="shared" si="4"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.9999999999999999E+105</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1475,9 +1507,11 @@
         <v>20</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="G32" s="1">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="H32" s="1">
@@ -1489,11 +1523,12 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>1.0000000000000001E+106</v>
+        <f t="shared" si="4"/>
+        <v>9.9999999999999989E+105</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="5"/>
-        <v>2.0000000000000002E+106</v>
+        <f t="shared" si="3"/>
+        <v>1.9999999999999998E+106</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
@@ -1502,9 +1537,11 @@
         <v>20</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="G33" s="1">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="H33" s="1">
@@ -1516,10 +1553,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
+        <f t="shared" si="4"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.9999999999999999E+107</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1529,9 +1567,11 @@
         <v>20</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="G34" s="1">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="H34" s="1">
@@ -1543,10 +1583,11 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
+        <f t="shared" si="4"/>
         <v>1E+108</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000001E+108</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1556,9 +1597,11 @@
         <v>20</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="G35" s="1">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="H35" s="1">
@@ -1570,10 +1613,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
+        <f t="shared" si="4"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2E+109</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1583,9 +1627,11 @@
         <v>20</v>
       </c>
       <c r="F36" s="1">
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="G36" s="1">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="H36" s="1">
@@ -1597,10 +1643,11 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
+        <f t="shared" si="4"/>
         <v>1E+110</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2E+110</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1610,9 +1657,11 @@
         <v>20</v>
       </c>
       <c r="F37" s="1">
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="G37" s="1">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="H37" s="1">
@@ -1624,11 +1673,12 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>9.9999999999999996E+110</v>
+        <f t="shared" si="4"/>
+        <v>1.0000000000000001E+111</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="5"/>
-        <v>1.9999999999999999E+111</v>
+        <f t="shared" si="3"/>
+        <v>2.0000000000000002E+111</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>44</v>
@@ -1637,12 +1687,134 @@
         <v>20</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="G38" s="1">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" ref="B39:B42" si="7">B38*10</f>
+        <v>1.0000000000000001E+112</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" ref="C39:C41" si="8">B39*2</f>
+        <v>2.0000000000000003E+112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ref="F39:F42" si="9">F38+5</f>
+        <v>190</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ref="G39:G42" si="10">G38+2</f>
+        <v>48</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+113</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000004E+113</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="1">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="9"/>
+        <v>195</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+114</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000003E+114</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1">
+        <v>20</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+115</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42" si="11">B42*2</f>
+        <v>2.0000000000000005E+115</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="H42" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1561FC1C-6F1D-408C-BF49-3BB9B0673F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F557D64-67EB-48E3-9C3B-3A71F389FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoCave" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,26 @@
   </si>
   <si>
     <t>1000살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1찰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1703,7 +1723,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B42" si="7">B38*10</f>
+        <f t="shared" ref="B39:B47" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1717,11 +1737,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F42" si="9">F38+5</f>
+        <f t="shared" ref="F39:F47" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G42" si="10">G38+2</f>
+        <f t="shared" ref="G39:G47" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -1797,7 +1817,7 @@
         <v>1.0000000000000002E+115</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ref="C42" si="11">B42*2</f>
+        <f t="shared" ref="C42:C43" si="11">B42*2</f>
         <v>2.0000000000000005E+115</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1815,6 +1835,156 @@
         <v>54</v>
       </c>
       <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+116</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="11"/>
+        <v>2.0000000000000004E+116</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="1">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="9"/>
+        <v>210</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+117</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:C46" si="12">B44*2</f>
+        <v>2.0000000000000004E+117</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="1">
+        <v>20</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="9"/>
+        <v>215</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="10"/>
+        <v>58</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+118</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="12"/>
+        <v>2.0000000000000004E+118</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="1">
+        <v>20</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+119</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="12"/>
+        <v>2.0000000000000002E+119</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="9"/>
+        <v>225</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+120</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" ref="C47" si="13">B47*2</f>
+        <v>2.0000000000000002E+120</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="1">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="9"/>
+        <v>230</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="H47" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/TwoCave.xlsx
+++ b/Assets/06.Table/TwoCave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F557D64-67EB-48E3-9C3B-3A71F389FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D149E7-B1D8-4099-9DB4-5072EDBF63EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,38 @@
   </si>
   <si>
     <t>1찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1723,7 +1755,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:B47" si="7">B38*10</f>
+        <f t="shared" ref="B39:B55" si="7">B38*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C39" s="3">
@@ -1737,11 +1769,11 @@
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ref="F39:F47" si="9">F38+5</f>
+        <f t="shared" ref="F39:F55" si="9">F38+5</f>
         <v>190</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" ref="G39:G47" si="10">G38+2</f>
+        <f t="shared" ref="G39:G55" si="10">G38+2</f>
         <v>48</v>
       </c>
       <c r="H39" s="1">
@@ -1967,7 +1999,7 @@
         <v>1.0000000000000001E+120</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47" si="13">B47*2</f>
+        <f t="shared" ref="C47:C51" si="13">B47*2</f>
         <v>2.0000000000000002E+120</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1985,6 +2017,246 @@
         <v>64</v>
       </c>
       <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+121</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="13"/>
+        <v>2.0000000000000003E+121</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="1">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="9"/>
+        <v>235</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E+122</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="13"/>
+        <v>2.0000000000000004E+122</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="1">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+123</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="13"/>
+        <v>2.0000000000000002E+123</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="9"/>
+        <v>245</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+124</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="13"/>
+        <v>2.0000000000000001E+124</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="1">
+        <v>20</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+125</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" ref="C52:C55" si="14">B52*2</f>
+        <v>2.0000000000000002E+125</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="1">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="9"/>
+        <v>255</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+126</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0000000000000002E+126</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="1">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+127</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0000000000000002E+127</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1">
+        <v>20</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="9"/>
+        <v>265</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0000000000000002E+128</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="1">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="H55" s="1">
         <v>0</v>
       </c>
     </row>
